--- a/01.周报/2016-10-22.xlsx
+++ b/01.周报/2016-10-22.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27022"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -53,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +111,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -124,7 +129,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -134,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,18 +149,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,45 +454,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="48.25" customWidth="1"/>
-    <col min="5" max="5" width="29.25" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -504,17 +512,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A4" s="5"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="6">
+        <v>0.75</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A5" s="5"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -524,7 +534,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -534,7 +544,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -544,7 +554,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -561,32 +571,47 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>